--- a/tests/fixtures_files/fs-MartinFernandez.xlsx
+++ b/tests/fixtures_files/fs-MartinFernandez.xlsx
@@ -162,12 +162,6 @@
     <t>26 Nov 1755</t>
   </si>
   <si>
-    <t>Nicolas De Aiala</t>
-  </si>
-  <si>
-    <t>Mathias De Aiala;Ana Martinez Pelaez</t>
-  </si>
-  <si>
     <t>M87370-2</t>
   </si>
   <si>
@@ -175,6 +169,12 @@
   </si>
   <si>
     <t>ark:/61903/1:1:FFVX-P6T</t>
+  </si>
+  <si>
+    <t>Nicolas De Ayala</t>
+  </si>
+  <si>
+    <t>Mathias De Ayala;Ana Martinez Pelaez</t>
   </si>
 </sst>
 </file>
@@ -182,9 +182,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -225,6 +225,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -246,15 +251,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,7 +544,7 @@
   <dimension ref="A2:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -772,25 +778,25 @@
       <c r="Q10" t="s">
         <v>37</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="V10" t="s">
         <v>47</v>
       </c>
-      <c r="T10" t="s">
+      <c r="X10" t="s">
         <v>48</v>
       </c>
-      <c r="V10" t="s">
+      <c r="Z10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="X10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z10" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="url"/>
+    <hyperlink ref="A2" r:id="rId1" location="&amp;offset=0&amp;count=75&amp;query=+surname:martin~ +father_givenname:manuel~ +mother_givenname:angela~ +mother_surname:fernandez~ +record_country:Spain +record_subcountry:&quot;Spain,Valladolid&quot;" display="url"/>
     <hyperlink ref="Z6" r:id="rId2" display="url"/>
     <hyperlink ref="Z7" r:id="rId3" display="url"/>
     <hyperlink ref="Z8" r:id="rId4" display="url"/>
